--- a/insr2_sup1/insr2_sup1_graph.xlsx
+++ b/insr2_sup1/insr2_sup1_graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESI\2CP\TP1_SFSD\insr2_sup1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271F6963-026F-4901-8A3B-3C99796E7C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A5092-7E3F-401A-8CC0-CCAA8B097D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,66 +92,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Dungeon" panose="040D0607070702040804" pitchFamily="82" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800">
-                <a:latin typeface="Dungeon" panose="040D0607070702040804" pitchFamily="82" charset="0"/>
-              </a:rPr>
-              <a:t>insr2 - sup1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37256237217878269"/>
-          <c:y val="3.2232575374312414E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Dungeon" panose="040D0607070702040804" pitchFamily="82" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -161,11 +103,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Feuil1!$A$1</c:f>
+              <c:f>[2]general!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>insr2_LOF</c:v>
+                  <c:v>ins21_lect_LOF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -184,17 +126,317 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[1]Feuil1!$A$2:$A$97</c:f>
+              <c:f>[2]general!$B$5:$CW$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>730</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2FA5-450B-AC9B-76CF49A178D4}"/>
+              <c16:uniqueId val="{00000000-112B-4A16-8F63-419BA82177C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -203,11 +445,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Feuil1!$B$1</c:f>
+              <c:f>[2]general!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sup1_LOF</c:v>
+                  <c:v>ins21_ecr_LOF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -226,17 +468,1001 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[1]Feuil1!$B$2:$B$97</c:f>
+              <c:f>[2]general!$B$6:$CW$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2FA5-450B-AC9B-76CF49A178D4}"/>
+              <c16:uniqueId val="{00000001-112B-4A16-8F63-419BA82177C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]general!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sup21_lect_LOF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]general!$B$7:$CW$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-112B-4A16-8F63-419BA82177C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]general!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sup21_ecr_LOF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]general!$B$8:$CW$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-112B-4A16-8F63-419BA82177C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -436,6 +1662,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -999,23 +2226,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CFFFE9-610A-4E5E-AA18-93BFBBF37AFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898695BE-1FFD-4D9B-8CF2-588ABABA280A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1035,62 +2262,159 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2254250" cy="384016"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ZoneTexte 2">
-          <a:extLst>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.32281</cdr:x>
+      <cdr:y>0.04453</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70158</cdr:x>
+      <cdr:y>0.12395</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="ZoneTexte 16">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937425F0-1C6F-4FFC-98A5-8D5F9B73677D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71068093-15EB-4673-B371-C9CBC0E995D5}"/>
             </a:ext>
           </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3914775" y="247650"/>
-          <a:ext cx="2254250" cy="384016"/>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2143125" y="201896"/>
+          <a:ext cx="2514600" cy="360080"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:schemeClr val="tx1"/>
         </a:solidFill>
-        <a:ln w="28575">
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575">
           <a:solidFill>
             <a:srgbClr val="00B0F0"/>
           </a:solidFill>
         </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="fr-FR" sz="2000">
               <a:solidFill>
@@ -1116,11 +2440,10 @@
             <a:latin typeface="Dungeon" panose="040D0607070702040804" pitchFamily="82" charset="0"/>
           </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1137,6 +2460,1240 @@
           </cell>
           <cell r="B1" t="str">
             <v>sup1_LOF</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="general"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>ins21_lect_LOF</v>
+          </cell>
+          <cell r="B5">
+            <v>2</v>
+          </cell>
+          <cell r="C5">
+            <v>5</v>
+          </cell>
+          <cell r="D5">
+            <v>8</v>
+          </cell>
+          <cell r="E5">
+            <v>11</v>
+          </cell>
+          <cell r="F5">
+            <v>14</v>
+          </cell>
+          <cell r="G5">
+            <v>17</v>
+          </cell>
+          <cell r="H5">
+            <v>20</v>
+          </cell>
+          <cell r="I5">
+            <v>23</v>
+          </cell>
+          <cell r="J5">
+            <v>26</v>
+          </cell>
+          <cell r="K5">
+            <v>29</v>
+          </cell>
+          <cell r="L5">
+            <v>32</v>
+          </cell>
+          <cell r="M5">
+            <v>36</v>
+          </cell>
+          <cell r="N5">
+            <v>40</v>
+          </cell>
+          <cell r="O5">
+            <v>44</v>
+          </cell>
+          <cell r="P5">
+            <v>48</v>
+          </cell>
+          <cell r="Q5">
+            <v>52</v>
+          </cell>
+          <cell r="R5">
+            <v>56</v>
+          </cell>
+          <cell r="S5">
+            <v>60</v>
+          </cell>
+          <cell r="T5">
+            <v>64</v>
+          </cell>
+          <cell r="U5">
+            <v>68</v>
+          </cell>
+          <cell r="V5">
+            <v>72</v>
+          </cell>
+          <cell r="W5">
+            <v>76</v>
+          </cell>
+          <cell r="X5">
+            <v>81</v>
+          </cell>
+          <cell r="Y5">
+            <v>86</v>
+          </cell>
+          <cell r="Z5">
+            <v>91</v>
+          </cell>
+          <cell r="AA5">
+            <v>96</v>
+          </cell>
+          <cell r="AB5">
+            <v>101</v>
+          </cell>
+          <cell r="AC5">
+            <v>106</v>
+          </cell>
+          <cell r="AD5">
+            <v>111</v>
+          </cell>
+          <cell r="AE5">
+            <v>116</v>
+          </cell>
+          <cell r="AF5">
+            <v>121</v>
+          </cell>
+          <cell r="AG5">
+            <v>126</v>
+          </cell>
+          <cell r="AH5">
+            <v>131</v>
+          </cell>
+          <cell r="AI5">
+            <v>136</v>
+          </cell>
+          <cell r="AJ5">
+            <v>141</v>
+          </cell>
+          <cell r="AK5">
+            <v>147</v>
+          </cell>
+          <cell r="AL5">
+            <v>153</v>
+          </cell>
+          <cell r="AM5">
+            <v>159</v>
+          </cell>
+          <cell r="AN5">
+            <v>165</v>
+          </cell>
+          <cell r="AO5">
+            <v>171</v>
+          </cell>
+          <cell r="AP5">
+            <v>177</v>
+          </cell>
+          <cell r="AQ5">
+            <v>184</v>
+          </cell>
+          <cell r="AR5">
+            <v>191</v>
+          </cell>
+          <cell r="AS5">
+            <v>198</v>
+          </cell>
+          <cell r="AT5">
+            <v>205</v>
+          </cell>
+          <cell r="AU5">
+            <v>212</v>
+          </cell>
+          <cell r="AV5">
+            <v>219</v>
+          </cell>
+          <cell r="AW5">
+            <v>226</v>
+          </cell>
+          <cell r="AX5">
+            <v>233</v>
+          </cell>
+          <cell r="AY5">
+            <v>240</v>
+          </cell>
+          <cell r="AZ5">
+            <v>247</v>
+          </cell>
+          <cell r="BA5">
+            <v>255</v>
+          </cell>
+          <cell r="BB5">
+            <v>263</v>
+          </cell>
+          <cell r="BC5">
+            <v>271</v>
+          </cell>
+          <cell r="BD5">
+            <v>279</v>
+          </cell>
+          <cell r="BE5">
+            <v>287</v>
+          </cell>
+          <cell r="BF5">
+            <v>295</v>
+          </cell>
+          <cell r="BG5">
+            <v>303</v>
+          </cell>
+          <cell r="BH5">
+            <v>311</v>
+          </cell>
+          <cell r="BI5">
+            <v>319</v>
+          </cell>
+          <cell r="BJ5">
+            <v>327</v>
+          </cell>
+          <cell r="BK5">
+            <v>336</v>
+          </cell>
+          <cell r="BL5">
+            <v>345</v>
+          </cell>
+          <cell r="BM5">
+            <v>354</v>
+          </cell>
+          <cell r="BN5">
+            <v>363</v>
+          </cell>
+          <cell r="BO5">
+            <v>372</v>
+          </cell>
+          <cell r="BP5">
+            <v>381</v>
+          </cell>
+          <cell r="BQ5">
+            <v>390</v>
+          </cell>
+          <cell r="BR5">
+            <v>399</v>
+          </cell>
+          <cell r="BS5">
+            <v>408</v>
+          </cell>
+          <cell r="BT5">
+            <v>417</v>
+          </cell>
+          <cell r="BU5">
+            <v>426</v>
+          </cell>
+          <cell r="BV5">
+            <v>436</v>
+          </cell>
+          <cell r="BW5">
+            <v>446</v>
+          </cell>
+          <cell r="BX5">
+            <v>456</v>
+          </cell>
+          <cell r="BY5">
+            <v>466</v>
+          </cell>
+          <cell r="BZ5">
+            <v>476</v>
+          </cell>
+          <cell r="CA5">
+            <v>486</v>
+          </cell>
+          <cell r="CB5">
+            <v>496</v>
+          </cell>
+          <cell r="CC5">
+            <v>506</v>
+          </cell>
+          <cell r="CD5">
+            <v>516</v>
+          </cell>
+          <cell r="CE5">
+            <v>527</v>
+          </cell>
+          <cell r="CF5">
+            <v>538</v>
+          </cell>
+          <cell r="CG5">
+            <v>549</v>
+          </cell>
+          <cell r="CH5">
+            <v>560</v>
+          </cell>
+          <cell r="CI5">
+            <v>571</v>
+          </cell>
+          <cell r="CJ5">
+            <v>582</v>
+          </cell>
+          <cell r="CK5">
+            <v>593</v>
+          </cell>
+          <cell r="CL5">
+            <v>604</v>
+          </cell>
+          <cell r="CM5">
+            <v>615</v>
+          </cell>
+          <cell r="CN5">
+            <v>626</v>
+          </cell>
+          <cell r="CO5">
+            <v>637</v>
+          </cell>
+          <cell r="CP5">
+            <v>648</v>
+          </cell>
+          <cell r="CQ5">
+            <v>659</v>
+          </cell>
+          <cell r="CR5">
+            <v>670</v>
+          </cell>
+          <cell r="CS5">
+            <v>682</v>
+          </cell>
+          <cell r="CT5">
+            <v>694</v>
+          </cell>
+          <cell r="CU5">
+            <v>706</v>
+          </cell>
+          <cell r="CV5">
+            <v>718</v>
+          </cell>
+          <cell r="CW5">
+            <v>730</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>ins21_ecr_LOF</v>
+          </cell>
+          <cell r="B6">
+            <v>1</v>
+          </cell>
+          <cell r="C6">
+            <v>2</v>
+          </cell>
+          <cell r="D6">
+            <v>3</v>
+          </cell>
+          <cell r="E6">
+            <v>4</v>
+          </cell>
+          <cell r="F6">
+            <v>5</v>
+          </cell>
+          <cell r="G6">
+            <v>6</v>
+          </cell>
+          <cell r="H6">
+            <v>7</v>
+          </cell>
+          <cell r="I6">
+            <v>8</v>
+          </cell>
+          <cell r="J6">
+            <v>9</v>
+          </cell>
+          <cell r="K6">
+            <v>10</v>
+          </cell>
+          <cell r="L6">
+            <v>11</v>
+          </cell>
+          <cell r="M6">
+            <v>12</v>
+          </cell>
+          <cell r="N6">
+            <v>13</v>
+          </cell>
+          <cell r="O6">
+            <v>14</v>
+          </cell>
+          <cell r="P6">
+            <v>15</v>
+          </cell>
+          <cell r="Q6">
+            <v>16</v>
+          </cell>
+          <cell r="R6">
+            <v>17</v>
+          </cell>
+          <cell r="S6">
+            <v>18</v>
+          </cell>
+          <cell r="T6">
+            <v>19</v>
+          </cell>
+          <cell r="U6">
+            <v>20</v>
+          </cell>
+          <cell r="V6">
+            <v>21</v>
+          </cell>
+          <cell r="W6">
+            <v>22</v>
+          </cell>
+          <cell r="X6">
+            <v>23</v>
+          </cell>
+          <cell r="Y6">
+            <v>24</v>
+          </cell>
+          <cell r="Z6">
+            <v>25</v>
+          </cell>
+          <cell r="AA6">
+            <v>26</v>
+          </cell>
+          <cell r="AB6">
+            <v>27</v>
+          </cell>
+          <cell r="AC6">
+            <v>28</v>
+          </cell>
+          <cell r="AD6">
+            <v>29</v>
+          </cell>
+          <cell r="AE6">
+            <v>30</v>
+          </cell>
+          <cell r="AF6">
+            <v>31</v>
+          </cell>
+          <cell r="AG6">
+            <v>32</v>
+          </cell>
+          <cell r="AH6">
+            <v>33</v>
+          </cell>
+          <cell r="AI6">
+            <v>34</v>
+          </cell>
+          <cell r="AJ6">
+            <v>35</v>
+          </cell>
+          <cell r="AK6">
+            <v>36</v>
+          </cell>
+          <cell r="AL6">
+            <v>37</v>
+          </cell>
+          <cell r="AM6">
+            <v>38</v>
+          </cell>
+          <cell r="AN6">
+            <v>39</v>
+          </cell>
+          <cell r="AO6">
+            <v>40</v>
+          </cell>
+          <cell r="AP6">
+            <v>41</v>
+          </cell>
+          <cell r="AQ6">
+            <v>42</v>
+          </cell>
+          <cell r="AR6">
+            <v>43</v>
+          </cell>
+          <cell r="AS6">
+            <v>44</v>
+          </cell>
+          <cell r="AT6">
+            <v>45</v>
+          </cell>
+          <cell r="AU6">
+            <v>46</v>
+          </cell>
+          <cell r="AV6">
+            <v>47</v>
+          </cell>
+          <cell r="AW6">
+            <v>48</v>
+          </cell>
+          <cell r="AX6">
+            <v>49</v>
+          </cell>
+          <cell r="AY6">
+            <v>50</v>
+          </cell>
+          <cell r="AZ6">
+            <v>51</v>
+          </cell>
+          <cell r="BA6">
+            <v>52</v>
+          </cell>
+          <cell r="BB6">
+            <v>53</v>
+          </cell>
+          <cell r="BC6">
+            <v>54</v>
+          </cell>
+          <cell r="BD6">
+            <v>55</v>
+          </cell>
+          <cell r="BE6">
+            <v>56</v>
+          </cell>
+          <cell r="BF6">
+            <v>57</v>
+          </cell>
+          <cell r="BG6">
+            <v>58</v>
+          </cell>
+          <cell r="BH6">
+            <v>59</v>
+          </cell>
+          <cell r="BI6">
+            <v>60</v>
+          </cell>
+          <cell r="BJ6">
+            <v>61</v>
+          </cell>
+          <cell r="BK6">
+            <v>62</v>
+          </cell>
+          <cell r="BL6">
+            <v>63</v>
+          </cell>
+          <cell r="BM6">
+            <v>64</v>
+          </cell>
+          <cell r="BN6">
+            <v>65</v>
+          </cell>
+          <cell r="BO6">
+            <v>66</v>
+          </cell>
+          <cell r="BP6">
+            <v>67</v>
+          </cell>
+          <cell r="BQ6">
+            <v>68</v>
+          </cell>
+          <cell r="BR6">
+            <v>69</v>
+          </cell>
+          <cell r="BS6">
+            <v>70</v>
+          </cell>
+          <cell r="BT6">
+            <v>71</v>
+          </cell>
+          <cell r="BU6">
+            <v>72</v>
+          </cell>
+          <cell r="BV6">
+            <v>73</v>
+          </cell>
+          <cell r="BW6">
+            <v>74</v>
+          </cell>
+          <cell r="BX6">
+            <v>75</v>
+          </cell>
+          <cell r="BY6">
+            <v>76</v>
+          </cell>
+          <cell r="BZ6">
+            <v>77</v>
+          </cell>
+          <cell r="CA6">
+            <v>78</v>
+          </cell>
+          <cell r="CB6">
+            <v>79</v>
+          </cell>
+          <cell r="CC6">
+            <v>80</v>
+          </cell>
+          <cell r="CD6">
+            <v>81</v>
+          </cell>
+          <cell r="CE6">
+            <v>82</v>
+          </cell>
+          <cell r="CF6">
+            <v>83</v>
+          </cell>
+          <cell r="CG6">
+            <v>84</v>
+          </cell>
+          <cell r="CH6">
+            <v>85</v>
+          </cell>
+          <cell r="CI6">
+            <v>86</v>
+          </cell>
+          <cell r="CJ6">
+            <v>87</v>
+          </cell>
+          <cell r="CK6">
+            <v>88</v>
+          </cell>
+          <cell r="CL6">
+            <v>89</v>
+          </cell>
+          <cell r="CM6">
+            <v>90</v>
+          </cell>
+          <cell r="CN6">
+            <v>91</v>
+          </cell>
+          <cell r="CO6">
+            <v>92</v>
+          </cell>
+          <cell r="CP6">
+            <v>93</v>
+          </cell>
+          <cell r="CQ6">
+            <v>94</v>
+          </cell>
+          <cell r="CR6">
+            <v>95</v>
+          </cell>
+          <cell r="CS6">
+            <v>96</v>
+          </cell>
+          <cell r="CT6">
+            <v>97</v>
+          </cell>
+          <cell r="CU6">
+            <v>98</v>
+          </cell>
+          <cell r="CV6">
+            <v>99</v>
+          </cell>
+          <cell r="CW6">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>sup21_lect_LOF</v>
+          </cell>
+          <cell r="B7">
+            <v>2</v>
+          </cell>
+          <cell r="C7">
+            <v>4</v>
+          </cell>
+          <cell r="D7">
+            <v>6</v>
+          </cell>
+          <cell r="E7">
+            <v>9</v>
+          </cell>
+          <cell r="F7">
+            <v>12</v>
+          </cell>
+          <cell r="G7">
+            <v>16</v>
+          </cell>
+          <cell r="H7">
+            <v>19</v>
+          </cell>
+          <cell r="I7">
+            <v>22</v>
+          </cell>
+          <cell r="J7">
+            <v>26</v>
+          </cell>
+          <cell r="K7">
+            <v>29</v>
+          </cell>
+          <cell r="L7">
+            <v>32</v>
+          </cell>
+          <cell r="M7">
+            <v>36</v>
+          </cell>
+          <cell r="N7">
+            <v>39</v>
+          </cell>
+          <cell r="O7">
+            <v>42</v>
+          </cell>
+          <cell r="P7">
+            <v>46</v>
+          </cell>
+          <cell r="Q7">
+            <v>49</v>
+          </cell>
+          <cell r="R7">
+            <v>52</v>
+          </cell>
+          <cell r="S7">
+            <v>56</v>
+          </cell>
+          <cell r="T7">
+            <v>59</v>
+          </cell>
+          <cell r="U7">
+            <v>62</v>
+          </cell>
+          <cell r="V7">
+            <v>65</v>
+          </cell>
+          <cell r="W7">
+            <v>69</v>
+          </cell>
+          <cell r="X7">
+            <v>73</v>
+          </cell>
+          <cell r="Y7">
+            <v>78</v>
+          </cell>
+          <cell r="Z7">
+            <v>82</v>
+          </cell>
+          <cell r="AA7">
+            <v>86</v>
+          </cell>
+          <cell r="AB7">
+            <v>91</v>
+          </cell>
+          <cell r="AC7">
+            <v>95</v>
+          </cell>
+          <cell r="AD7">
+            <v>99</v>
+          </cell>
+          <cell r="AE7">
+            <v>104</v>
+          </cell>
+          <cell r="AF7">
+            <v>108</v>
+          </cell>
+          <cell r="AG7">
+            <v>112</v>
+          </cell>
+          <cell r="AH7">
+            <v>117</v>
+          </cell>
+          <cell r="AI7">
+            <v>121</v>
+          </cell>
+          <cell r="AJ7">
+            <v>125</v>
+          </cell>
+          <cell r="AK7">
+            <v>129</v>
+          </cell>
+          <cell r="AL7">
+            <v>134</v>
+          </cell>
+          <cell r="AM7">
+            <v>139</v>
+          </cell>
+          <cell r="AN7">
+            <v>145</v>
+          </cell>
+          <cell r="AO7">
+            <v>150</v>
+          </cell>
+          <cell r="AP7">
+            <v>155</v>
+          </cell>
+          <cell r="AQ7">
+            <v>161</v>
+          </cell>
+          <cell r="AR7">
+            <v>166</v>
+          </cell>
+          <cell r="AS7">
+            <v>171</v>
+          </cell>
+          <cell r="AT7">
+            <v>177</v>
+          </cell>
+          <cell r="AU7">
+            <v>182</v>
+          </cell>
+          <cell r="AV7">
+            <v>187</v>
+          </cell>
+          <cell r="AW7">
+            <v>192</v>
+          </cell>
+          <cell r="AX7">
+            <v>198</v>
+          </cell>
+          <cell r="AY7">
+            <v>204</v>
+          </cell>
+          <cell r="AZ7">
+            <v>210</v>
+          </cell>
+          <cell r="BA7">
+            <v>217</v>
+          </cell>
+          <cell r="BB7">
+            <v>224</v>
+          </cell>
+          <cell r="BC7">
+            <v>232</v>
+          </cell>
+          <cell r="BD7">
+            <v>239</v>
+          </cell>
+          <cell r="BE7">
+            <v>246</v>
+          </cell>
+          <cell r="BF7">
+            <v>254</v>
+          </cell>
+          <cell r="BG7">
+            <v>261</v>
+          </cell>
+          <cell r="BH7">
+            <v>268</v>
+          </cell>
+          <cell r="BI7">
+            <v>276</v>
+          </cell>
+          <cell r="BJ7">
+            <v>283</v>
+          </cell>
+          <cell r="BK7">
+            <v>290</v>
+          </cell>
+          <cell r="BL7">
+            <v>297</v>
+          </cell>
+          <cell r="BM7">
+            <v>305</v>
+          </cell>
+          <cell r="BN7">
+            <v>313</v>
+          </cell>
+          <cell r="BO7">
+            <v>322</v>
+          </cell>
+          <cell r="BP7">
+            <v>330</v>
+          </cell>
+          <cell r="BQ7">
+            <v>338</v>
+          </cell>
+          <cell r="BR7">
+            <v>347</v>
+          </cell>
+          <cell r="BS7">
+            <v>355</v>
+          </cell>
+          <cell r="BT7">
+            <v>363</v>
+          </cell>
+          <cell r="BU7">
+            <v>371</v>
+          </cell>
+          <cell r="BV7">
+            <v>380</v>
+          </cell>
+          <cell r="BW7">
+            <v>389</v>
+          </cell>
+          <cell r="BX7">
+            <v>399</v>
+          </cell>
+          <cell r="BY7">
+            <v>408</v>
+          </cell>
+          <cell r="BZ7">
+            <v>417</v>
+          </cell>
+          <cell r="CA7">
+            <v>427</v>
+          </cell>
+          <cell r="CB7">
+            <v>436</v>
+          </cell>
+          <cell r="CC7">
+            <v>445</v>
+          </cell>
+          <cell r="CD7">
+            <v>455</v>
+          </cell>
+          <cell r="CE7">
+            <v>464</v>
+          </cell>
+          <cell r="CF7">
+            <v>473</v>
+          </cell>
+          <cell r="CG7">
+            <v>483</v>
+          </cell>
+          <cell r="CH7">
+            <v>492</v>
+          </cell>
+          <cell r="CI7">
+            <v>501</v>
+          </cell>
+          <cell r="CJ7">
+            <v>511</v>
+          </cell>
+          <cell r="CK7">
+            <v>520</v>
+          </cell>
+          <cell r="CL7">
+            <v>529</v>
+          </cell>
+          <cell r="CM7">
+            <v>538</v>
+          </cell>
+          <cell r="CN7">
+            <v>548</v>
+          </cell>
+          <cell r="CO7">
+            <v>558</v>
+          </cell>
+          <cell r="CP7">
+            <v>569</v>
+          </cell>
+          <cell r="CQ7">
+            <v>579</v>
+          </cell>
+          <cell r="CR7">
+            <v>589</v>
+          </cell>
+          <cell r="CS7">
+            <v>600</v>
+          </cell>
+          <cell r="CT7">
+            <v>610</v>
+          </cell>
+          <cell r="CU7">
+            <v>620</v>
+          </cell>
+          <cell r="CV7">
+            <v>631</v>
+          </cell>
+          <cell r="CW7">
+            <v>641</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>sup21_ecr_LOF</v>
+          </cell>
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="C8">
+            <v>2</v>
+          </cell>
+          <cell r="D8">
+            <v>3</v>
+          </cell>
+          <cell r="E8">
+            <v>4</v>
+          </cell>
+          <cell r="F8">
+            <v>5</v>
+          </cell>
+          <cell r="G8">
+            <v>6</v>
+          </cell>
+          <cell r="H8">
+            <v>7</v>
+          </cell>
+          <cell r="I8">
+            <v>8</v>
+          </cell>
+          <cell r="J8">
+            <v>9</v>
+          </cell>
+          <cell r="K8">
+            <v>10</v>
+          </cell>
+          <cell r="L8">
+            <v>11</v>
+          </cell>
+          <cell r="M8">
+            <v>12</v>
+          </cell>
+          <cell r="N8">
+            <v>13</v>
+          </cell>
+          <cell r="O8">
+            <v>14</v>
+          </cell>
+          <cell r="P8">
+            <v>15</v>
+          </cell>
+          <cell r="Q8">
+            <v>16</v>
+          </cell>
+          <cell r="R8">
+            <v>17</v>
+          </cell>
+          <cell r="S8">
+            <v>18</v>
+          </cell>
+          <cell r="T8">
+            <v>19</v>
+          </cell>
+          <cell r="U8">
+            <v>20</v>
+          </cell>
+          <cell r="V8">
+            <v>21</v>
+          </cell>
+          <cell r="W8">
+            <v>22</v>
+          </cell>
+          <cell r="X8">
+            <v>23</v>
+          </cell>
+          <cell r="Y8">
+            <v>24</v>
+          </cell>
+          <cell r="Z8">
+            <v>25</v>
+          </cell>
+          <cell r="AA8">
+            <v>26</v>
+          </cell>
+          <cell r="AB8">
+            <v>27</v>
+          </cell>
+          <cell r="AC8">
+            <v>28</v>
+          </cell>
+          <cell r="AD8">
+            <v>29</v>
+          </cell>
+          <cell r="AE8">
+            <v>30</v>
+          </cell>
+          <cell r="AF8">
+            <v>31</v>
+          </cell>
+          <cell r="AG8">
+            <v>32</v>
+          </cell>
+          <cell r="AH8">
+            <v>33</v>
+          </cell>
+          <cell r="AI8">
+            <v>34</v>
+          </cell>
+          <cell r="AJ8">
+            <v>35</v>
+          </cell>
+          <cell r="AK8">
+            <v>36</v>
+          </cell>
+          <cell r="AL8">
+            <v>37</v>
+          </cell>
+          <cell r="AM8">
+            <v>38</v>
+          </cell>
+          <cell r="AN8">
+            <v>39</v>
+          </cell>
+          <cell r="AO8">
+            <v>40</v>
+          </cell>
+          <cell r="AP8">
+            <v>41</v>
+          </cell>
+          <cell r="AQ8">
+            <v>42</v>
+          </cell>
+          <cell r="AR8">
+            <v>43</v>
+          </cell>
+          <cell r="AS8">
+            <v>44</v>
+          </cell>
+          <cell r="AT8">
+            <v>45</v>
+          </cell>
+          <cell r="AU8">
+            <v>46</v>
+          </cell>
+          <cell r="AV8">
+            <v>47</v>
+          </cell>
+          <cell r="AW8">
+            <v>48</v>
+          </cell>
+          <cell r="AX8">
+            <v>49</v>
+          </cell>
+          <cell r="AY8">
+            <v>50</v>
+          </cell>
+          <cell r="AZ8">
+            <v>51</v>
+          </cell>
+          <cell r="BA8">
+            <v>52</v>
+          </cell>
+          <cell r="BB8">
+            <v>53</v>
+          </cell>
+          <cell r="BC8">
+            <v>54</v>
+          </cell>
+          <cell r="BD8">
+            <v>55</v>
+          </cell>
+          <cell r="BE8">
+            <v>56</v>
+          </cell>
+          <cell r="BF8">
+            <v>57</v>
+          </cell>
+          <cell r="BG8">
+            <v>58</v>
+          </cell>
+          <cell r="BH8">
+            <v>59</v>
+          </cell>
+          <cell r="BI8">
+            <v>60</v>
+          </cell>
+          <cell r="BJ8">
+            <v>61</v>
+          </cell>
+          <cell r="BK8">
+            <v>62</v>
+          </cell>
+          <cell r="BL8">
+            <v>63</v>
+          </cell>
+          <cell r="BM8">
+            <v>64</v>
+          </cell>
+          <cell r="BN8">
+            <v>65</v>
+          </cell>
+          <cell r="BO8">
+            <v>66</v>
+          </cell>
+          <cell r="BP8">
+            <v>67</v>
+          </cell>
+          <cell r="BQ8">
+            <v>68</v>
+          </cell>
+          <cell r="BR8">
+            <v>69</v>
+          </cell>
+          <cell r="BS8">
+            <v>70</v>
+          </cell>
+          <cell r="BT8">
+            <v>71</v>
+          </cell>
+          <cell r="BU8">
+            <v>72</v>
+          </cell>
+          <cell r="BV8">
+            <v>73</v>
+          </cell>
+          <cell r="BW8">
+            <v>74</v>
+          </cell>
+          <cell r="BX8">
+            <v>75</v>
+          </cell>
+          <cell r="BY8">
+            <v>76</v>
+          </cell>
+          <cell r="BZ8">
+            <v>77</v>
+          </cell>
+          <cell r="CA8">
+            <v>78</v>
+          </cell>
+          <cell r="CB8">
+            <v>79</v>
+          </cell>
+          <cell r="CC8">
+            <v>80</v>
+          </cell>
+          <cell r="CD8">
+            <v>81</v>
+          </cell>
+          <cell r="CE8">
+            <v>82</v>
+          </cell>
+          <cell r="CF8">
+            <v>83</v>
+          </cell>
+          <cell r="CG8">
+            <v>84</v>
+          </cell>
+          <cell r="CH8">
+            <v>85</v>
+          </cell>
+          <cell r="CI8">
+            <v>86</v>
+          </cell>
+          <cell r="CJ8">
+            <v>87</v>
+          </cell>
+          <cell r="CK8">
+            <v>88</v>
+          </cell>
+          <cell r="CL8">
+            <v>89</v>
+          </cell>
+          <cell r="CM8">
+            <v>90</v>
+          </cell>
+          <cell r="CN8">
+            <v>91</v>
+          </cell>
+          <cell r="CO8">
+            <v>92</v>
+          </cell>
+          <cell r="CP8">
+            <v>93</v>
+          </cell>
+          <cell r="CQ8">
+            <v>94</v>
+          </cell>
+          <cell r="CR8">
+            <v>95</v>
+          </cell>
+          <cell r="CS8">
+            <v>96</v>
+          </cell>
+          <cell r="CT8">
+            <v>97</v>
+          </cell>
+          <cell r="CU8">
+            <v>98</v>
+          </cell>
+          <cell r="CV8">
+            <v>99</v>
+          </cell>
+          <cell r="CW8">
+            <v>100</v>
           </cell>
         </row>
       </sheetData>
@@ -1411,7 +3968,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
